--- a/Lab1/лаб1.xlsx
+++ b/Lab1/лаб1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\учеба\4 sem\Матпрога\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\учеба\4 sem\Матпрога\MathProgramming_LAb\MathProgramming_labs\Lab1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -992,16 +992,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>53340</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>64225</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>157843</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>358140</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>369025</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>157843</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1288,8 +1288,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R7" sqref="R7"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
